--- a/TEI-XML/Daten/Layout.xlsx
+++ b/TEI-XML/Daten/Layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\roman-dixhuit\TEI-XML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\roman-dixhuit\TEI-XML\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE475A-318F-4C5C-8465-68F399498368}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2465AE-4ADB-4159-81FF-A8C92E0AAE70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
     <t>&lt;hong&gt;&lt;/hong&gt;</t>
   </si>
   <si>
-    <t>k.A. im Protokoll</t>
+    <t>k.A. im Protokoll, wahrscheinlich ist  &lt;kongge&gt; gemeint, trägt keine wichtige Information</t>
   </si>
 </sst>
 </file>
@@ -326,11 +326,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +649,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,14 +661,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
@@ -985,7 +985,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B26" t="s">

--- a/TEI-XML/Daten/Layout.xlsx
+++ b/TEI-XML/Daten/Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\roman-dixhuit\TEI-XML\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2465AE-4ADB-4159-81FF-A8C92E0AAE70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D865195B-AA41-4030-9357-DB5F73F2ACDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Layout-Kodierung</t>
   </si>
@@ -180,9 +180,6 @@
     <t>? Steht vom Fußtext; Warum mit einer Zahl?</t>
   </si>
   <si>
-    <t>Seitennumer</t>
-  </si>
-  <si>
     <t>&lt;pb n = "E.."/&gt;</t>
   </si>
   <si>
@@ -256,6 +253,18 @@
   </si>
   <si>
     <t>k.A. im Protokoll, wahrscheinlich ist  &lt;kongge&gt; gemeint, trägt keine wichtige Information</t>
+  </si>
+  <si>
+    <t>Seitennumer+page break</t>
+  </si>
+  <si>
+    <t>&lt;seg rend = "caps" type = "small caps"&gt;&lt;/seg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;shi&gt;</t>
+  </si>
+  <si>
+    <t>Verszeilen</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -722,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -736,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -750,7 +759,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -764,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -778,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -792,7 +801,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -803,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -817,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -828,7 +837,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -842,7 +851,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -856,7 +865,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -870,7 +879,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -884,7 +893,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -895,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,7 +923,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -928,82 +937,93 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
